--- a/data/retracted_papers_data.xlsx
+++ b/data/retracted_papers_data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/barnetta_qut_edu_au/Documents/fraud/baseline_tables/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="8_{49C2C9B8-C4AA-41A9-9106-F0BFE988D650}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E2DB8CB4-A539-4512-82F9-95B7CBC064E2}"/>
+  <xr:revisionPtr revIDLastSave="567" documentId="8_{49C2C9B8-C4AA-41A9-9106-F0BFE988D650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F31A9C24-060E-4049-A30C-93CD4105BB8F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{D03AE2F8-D6F8-438F-B978-2D02BF6E68B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="4" xr2:uid="{D03AE2F8-D6F8-438F-B978-2D02BF6E68B2}"/>
   </bookViews>
   <sheets>
     <sheet name="23432189" sheetId="1" r:id="rId1"/>
     <sheet name="6329241" sheetId="2" r:id="rId2"/>
     <sheet name="sample_sizes" sheetId="3" r:id="rId3"/>
     <sheet name="11375852" sheetId="4" r:id="rId4"/>
+    <sheet name="11564247" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="14">
   <si>
     <t>pmcid</t>
   </si>
@@ -76,6 +77,9 @@
   </si>
   <si>
     <t>sample_size</t>
+  </si>
+  <si>
+    <t>could not replicate this percent to first decimal place</t>
   </si>
 </sst>
 </file>
@@ -2622,10 +2626,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D611F17-3077-43D5-BC9B-0C6422AA5A66}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,6 +2698,28 @@
       </c>
       <c r="C6">
         <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11564247</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11564247</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2705,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7D846F-F63D-43F7-B728-086FAE1BA560}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,4 +3130,451 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA318BA-D1C7-4AA9-9555-AEDE2F45222A}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11564247</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11564247</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11564247</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11564247</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>6.2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11564247</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>97</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11564247</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11564247</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11564247</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11564247</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>155</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11564247</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>147</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11564247</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>12.3</v>
+      </c>
+      <c r="E12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11564247</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>11.9</v>
+      </c>
+      <c r="E13">
+        <v>1.2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11564247</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E14">
+        <v>1.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11564247</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>7.8</v>
+      </c>
+      <c r="E15">
+        <v>1.8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11564247</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>57.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11564247</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11564247</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11564247</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11564247</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11564247</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>